--- a/data/link_collection.xlsx
+++ b/data/link_collection.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">author</t>
   </si>
   <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
     <t xml:space="preserve">keywords</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t xml:space="preserve">2016-03-31</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=v1CmGbOGb2I</t>
+  </si>
+  <si>
     <t xml:space="preserve">functional programming, finance</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t xml:space="preserve">2021-10-26</t>
   </si>
   <si>
+    <t xml:space="preserve">https://fasterthanli.me/articles/my-ideal-rust-workflow</t>
+  </si>
+  <si>
     <t xml:space="preserve">rust</t>
   </si>
   <si>
@@ -79,6 +88,42 @@
     <t xml:space="preserve">blog</t>
   </si>
   <si>
+    <t xml:space="preserve">CS 253 Web Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/playlist?list=PL1y1iaEtjSYiiSGVlL1cHsXN_kvJOOhu-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web security, http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playlist for a full Stanford lecture on web security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS 194 Introductio to Haskell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seas.upenn.edu/~cis1940/spring13/lectures.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functional programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture on Haskell and functional programming in general.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Machine Learning and Statistics</t>
   </si>
   <si>
@@ -91,10 +136,287 @@
     <t xml:space="preserve">Richard McElreath</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/playlist?list=PLDcUM9US4XdPz-KxHM4XHt7uUVGWWVSus</t>
+  </si>
+  <si>
     <t xml:space="preserve">bayesian statistics, statistical inference, scientific research</t>
   </si>
   <si>
     <t xml:space="preserve">Starts from the very principles and explains how we can reason about the world coming from a Bayesian point of view. Basically any content by Richard McElreath is of insanely high quality. Check out the Book “Statistical Rethinking” and accompanying code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science as Amateur Software Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=8qzVV7eEiaI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk by Richard McElreath (highly recommended content in general) about the importance of software development in science.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stumpy docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stumpy.readthedocs.io/en/latest/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time series analysis, machine learning, feature transformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python library to compute matrix profile. Represent time series as nearest neighbor distance of a sliding window. Can be used to represent a time series and identify outliers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Language Processing and LLMs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAG over complex PDFs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=oa82yoJ6zYc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural language processing, large language model, evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goes into detail how to set up a python app to perform retrieval augmented generation (RAG) over complex PDFs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive LLM Visualization in Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendan Bycroft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bbycroft.net/llm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insanely cool visualization of the dimensions of the matrices in a transformer model. Together with the tutorial videos by Karpathy really helps to create a good intution for the structure of LLMs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer Slide Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Beyer (Google Deepmind)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucasb.eyer.be/transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural language processing, large language model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice slide deck on the transformer logic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chunking Visualizer for RAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://chunkviz.up.railway.app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large language model, retrieval augmented generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helps to visualize different approaches for chunking that is relevant when building RAG apps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERTopic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maarten Grootendorst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://maartengr.github.io/BERTopic/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large language model, topic modeling, clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic mining library based on BERT and c-TF-IDF. Haven't used it myself but looks very promising.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspectives on diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sander.ai/2023/07/20/perspectives.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion models, midjourney, dalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to diffusion models with a decent chunk of visualizations and sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Diffusion: Building a Diffusion Model from linear Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.countbayesie.com/blog/2023/4/21/linear-diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explains the principles of a diffusion model and applies it to a linear approach to generate MNIST digits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance and Monetary System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zur Sinnhaftigkeit von Schuldenbremsen und Fiskalregeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lars Feld </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(IFO Institute)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=EwxK5Rx7Kv4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt management, interest rates, debt brake, fiscal deficits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This talk lays out the basic arguments for fiscal rules in general and specifically the debt brake in Germany. Since the topic is so frequently in media and talk shows, it is quite interesting to have the pro side of this debate laid out compactly. Aspect I would have liked a few words about: Focus on nominal debt vs interest expenses against background of recent low interest environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money still matters for monetary policy presentation by Isabel Schnabel (ECB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel Schnabel (ECB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ecb.europa.eu/press/key/date/2023/html/ecb.sp230925_1~7ad8ef22e2.en.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inflation, money supply, macroeconomics, monetary policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the recent decade of low inflation and nominal interest rates before covid, I thought it was quite interesting to read the view by the ECB on the inflation surge. Especially since it was argued in different outlets (talk shows, news papers, agencies) that the inflation was primarily a supply side shock, this analysis from the ECB seems quite balanced and acknowledges the potential inflationary pressure, depending on the regime a sovereign state is in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirk Ehnts über Staatsschulden &amp; die Modern Monetary Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jung &amp; Naiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=wp1j11cmHbk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monetary policy, government deficit, modern monetary theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirk Ehnts is an advocate of modern monetary policy (MMT). In most cases I personally disagree with the assessments from advocates of the MMT school. However, I still find it interesting and valuable to follow the discussion and then come up with arguments as to why I disagree and would not recommend to follow the policy implications. Certainly the polar opposite to the lecture by Lars Feld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code based illustration of the Silicon Valley Bank Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwin Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://colab.research.google.com/drive/15uxrAeCCL327kWH9N0X-ogKwf2zErjP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank failure, leverage, bond risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive and code based explanation of the Silicon Valley Bank failure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python google colab notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Monetary Theory – An Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bundestag.de/resource/blob/935936/4cb387b41e6fce9a1840f139a4c84b29/WD-4-113-22-pdf-data.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report from the German Bundestag that lays our major points of criticism regarding the practical application of Modern Monetary Theory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Reality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture on virtual or digitized Humans at MPI Tübingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/playlist?list=PL05umP7R6ij13it8Rptqo7lycHozvzCJn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual reality, machine learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since I am a big fan of virtual reality, the concepts of trying to digitize humans is very interesting to me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesswrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lesswrong.com/rationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cognitive biases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popular blog dedicated to learning about cognitive biases and improving rational reasoning.</t>
   </si>
 </sst>
 </file>
@@ -106,7 +428,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,6 +449,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,6 +520,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,17 +654,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,88 +684,577 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="I4" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>45659</v>
+      <c r="I14" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="131.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="153.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="142.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>44953</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>45445</v>
       </c>
     </row>
   </sheetData>

--- a/data/link_collection.xlsx
+++ b/data/link_collection.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="154">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -124,6 +124,39 @@
     <t xml:space="preserve">Lecture on Haskell and functional programming in general.</t>
   </si>
   <si>
+    <t xml:space="preserve">Zig and Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Kladov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://matklad.github.io/2023/03/26/zig-and-rust.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, zig, programming languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This post compares Rust and Zig, which are quite popular at the moment, in terms of design and tooling. But this blog has in general many insightful articles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre Engineer’s guide to HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devon Peroutky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://devonperoutky.super.site/blog-posts/mediocre-engineers-guide-to-https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http, web development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides some nice visualizations on the http lifecycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Machine Learning and Statistics</t>
   </si>
   <si>
@@ -283,6 +316,54 @@
     <t xml:space="preserve">Explains the principles of a diffusion model and applies it to a linear approach to generate MNIST digits.</t>
   </si>
   <si>
+    <t xml:space="preserve">How diffusion models work: the math from scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergios Karagiannakos, Nikolas Adaloglou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://theaisummer.com/diffusion-models/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion models, math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walkthrough of math in diffusion models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defusing Diffusion Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paweł A. Pierzchlewicz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perceptron.blog/defusing-diffusion/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to diffusion model maths with very nice visualizations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Annotated Diffusion Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niels Rogge, Kashif Rasul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion models, pytorch, python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial for diffusion models with extensive code samples in pytorch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finance and Monetary System</t>
   </si>
   <si>
@@ -292,23 +373,7 @@
     <t xml:space="preserve">2023-11-20</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lars Feld </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(IFO Institute)</t>
-    </r>
+    <t xml:space="preserve">Lars Feld (IFO Institute)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=EwxK5Rx7Kv4</t>
@@ -428,7 +493,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -449,11 +514,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -498,12 +558,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,24 +571,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -654,17 +710,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.14"/>
   </cols>
   <sheetData>
@@ -672,36 +728,36 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -711,24 +767,24 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -738,522 +794,663 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="I5" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="0" t="s">
+      <c r="I8" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="I9" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="I11" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="B12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="5" t="n">
+      <c r="H12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="I14" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="131.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="I16" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="153.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="142.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="I18" s="4" t="n">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="G19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="131.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="5" t="n">
+      <c r="I21" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="153.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="142.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="4" t="n">
         <v>44953</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="0" t="s">
+      <c r="E25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="I26" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I27" s="4" t="n">
         <v>45445</v>
       </c>
     </row>

--- a/data/link_collection.xlsx
+++ b/data/link_collection.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$36</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="354">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -52,6 +52,60 @@
     <t xml:space="preserve">date_added</t>
   </si>
   <si>
+    <t xml:space="preserve">Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBSP: Automatic incremental view maintenance for rich query languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murat Demirbas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://muratbuffalo.blogspot.com/2024/11/dbsp-automatic-incremental-view.html?m=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database, incremental loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming language to express incremental data in streams. Includes a Rust library.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Internals: Working with IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavel Emelyanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.scylladb.com/2024/11/25/database-internals-working-with-io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discusses IO operations for databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lessons from scaling PostgreSQL queues to 100k events per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aris Tzoumas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rudderstack.com/blog/scaling-postgres-queue/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgresql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlines the challenges and they faced and potential fixes when trying to implement a high throughput queue in PostgreSQL.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deep Learning</t>
   </si>
   <si>
@@ -70,9 +124,6 @@
     <t xml:space="preserve">The website provides very helpful visuals to understand quantization, which is often used for LLMs to run on less capable hardware.</t>
   </si>
   <si>
-    <t xml:space="preserve">blog</t>
-  </si>
-  <si>
     <t xml:space="preserve">Defusing Diffusion Models</t>
   </si>
   <si>
@@ -148,6 +199,27 @@
     <t xml:space="preserve">Tutorial for diffusion models with extensive code samples in pytorch</t>
   </si>
   <si>
+    <t xml:space="preserve">Distributed Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Kafka transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Vanlightly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jack-vanlightly.com/analyses/2024/12/2/verifying-kafka-transactions-diary-entry-1-a-first-step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distributed systems, kafka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog series discusses how one might try to formally verify Kafka transactions using TLA+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finance and Monetary System</t>
   </si>
   <si>
@@ -271,6 +343,24 @@
     <t xml:space="preserve">This talk lays out the basic arguments for fiscal rules in general and specifically the debt brake in Germany. Since the topic is so frequently in media and talk shows, it is quite interesting to have the pro side of this debate laid out compactly. Aspect I would have liked a few words about: Focus on nominal debt vs interest expenses against background of recent low interest environment.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Why governments are 'addicted' to debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=n1jhoU9Mp_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt, government debt, inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of different perspectives on rising government debt in times where governments can no longer count on extremely low bond yields.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Machine Learning and Statistics</t>
   </si>
   <si>
@@ -421,6 +511,45 @@
     <t xml:space="preserve">Describes what the author has learned from using Rust and how that informs the designs how he writes Python code. Interesting in terms of reliability and making code more reliable.</t>
   </si>
   <si>
+    <t xml:space="preserve">A comprehensive guide to python project management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reinforcedknowledge.com/a-comprehensive-guide-to-python-project-management-and-packaging-concepts-illustrated-with-uv-part-i/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog on python project management that includes the uv library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Async/Await to Virtual Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armin Ronacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lucumr.pocoo.org/2025/7/26/virtual-threads/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The author discusses the drawbacks he sees of using async / await syntax and how it could be improved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fstrings.wtf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fstrings.wtf/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive web app that shows all the things that can go wrong with f strings in Python.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rust</t>
   </si>
   <si>
@@ -457,7 +586,229 @@
     <t xml:space="preserve">This post compares Rust and Zig, which are quite popular at the moment, in terms of design and tooling. But this blog has in general many insightful articles.</t>
   </si>
   <si>
-    <t xml:space="preserve">Software Development</t>
+    <t xml:space="preserve">Rust Performance Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nnethercote.github.io/perf-book/introduction.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating System in 1,000 Lines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000os.seiya.me/en/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Comprehensive Rust Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://google.github.io/comprehensive-rust/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Rust CLI tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dev.to/deepu105/rust-easy-modern-cross-platform-command-line-tools-to-supercharge-your-terminal-4dd3?comments_sort=oldest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axum Back Series – Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.0xshadow.dev/posts/backend-engineering-with-axum/axum-introduction/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, web server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial for Axum, web server form Tokio team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rust container cheat sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://johnbsmith.github.io/Informatik/Rust/Dateien/Rust-container-cheat-sheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elements of Rust – Core Types and Traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rustcurious.com/elements/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, data types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structured overview of different types and traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rust for Everyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Will Crichton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=R0dP-QR5wQo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, ownership, traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researcher  Will Crichton presents insights on working with and understanding Rust ownership and traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building a limit order book in Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rustquant.dev/blog/limit-order-book/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanosecond precision benchmarking for HFT systems in Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rustquant.dev/blog/nanosecond-precision-benchmarking-rust-hft/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Serde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Mcguigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.joshmcguigan.com/blog/understanding-serde/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, serialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep dive into the widely used and integral Serde rust package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lies we tell ourselves to keep using Golang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasterthanlime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fasterthanli.me/articles/lies-we-tell-ourselves-to-keep-using-golang#:~:text=And%20so%20they%20didn%27t.%20They%20didn%27t%20design%20a%20language.%20It%20sorta%20just%20%22happened%22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesting post on some differences between Rust and Go lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The definitive guide to error handling in Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angus Morrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.howtocodeit.com/articles/the-definitive-guide-to-rust-error-handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, error handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you see Box&lt;dyn Error + Send + Sync + 'static&gt; in Rust code and wonder what is going on, this blog can help to better understand it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The power of interning: making a time series database 2000x smaller in Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillaume Endignoux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gendignoux.com/blog/2025/03/03/rust-interning-2000x.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discusses how the interning pattern can help to represent JSON data in a compressed way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Most Watched Rust Talks Of 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.techtalksweekly.io/p/100-most-watched-rust-talks-of-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge collection of very interesting Rust talks. Spoiler: I did not watch all of them :-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type theory for busy engineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niko Matsakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=9qLACD9Bfbk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, type theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog by prominent Rust developer Steve Klabnik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Klabnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://steveklabnik.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog by prominent Developer in the Rust space. Post include “Does unsafe undermine Rust’s guarantees?” or “When should I use String vs &amp;str?” and many others. Definitely worth it to check it out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation of Rust panics in the standard library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michal Konstrubiec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fractalfir.github.io/generated_html/rustc_codegen_clr_v0_2_2.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep dive into implementation and use of panics in Rust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing an OS in Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philipp Oppermann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://os.phil-opp.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust, operating system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Series of posts that describe the components of implementing an operatig system in Rust with concrete code examples.</t>
   </si>
   <si>
     <t xml:space="preserve">Building and scaling Notion’s data lake</t>
@@ -598,6 +949,66 @@
     <t xml:space="preserve">Gives an overview of postgresql database internals with nice visualizations.</t>
   </si>
   <si>
+    <t xml:space="preserve">Latency Numbers Every Programmer Should Know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originally Peter Norvig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gist.github.com/jboner/2841832#file-latency-txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latency, high performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Distributed Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrey Satarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://asatarin.github.io/testing-distributed-systems/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distributed systems, database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best practices for RESTful web API design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/architecture/best-practices/api-design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General best practices for RESTful API design by Microsoft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Color is Your Function?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Nystrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journal.stuffwithstuff.com/2015/02/01/what-color-is-your-function/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python, javascript, rust, async</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The blog discusses the issue of colored functions and the problems we encounter when trying to combine non-async and sync code.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Various</t>
   </si>
   <si>
@@ -611,6 +1022,51 @@
   </si>
   <si>
     <t xml:space="preserve">Popular blog dedicated to learning about cognitive biases and improving rational reasoning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizing all books of the world in ISBN-Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiresky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phiresky.github.io/blog/2025/visualizing-all-books-in-isbn-space/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualization of ISBN address space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How fast the days are getting longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Antognigni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://joe-antognini.github.io/astronomy/daylight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interesting stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides nice visualizations to show how much longer or shorter the days get throughout the year, considering latitude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaced Repetition Systems Have Gotten Way Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domenic Denicola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://domenic.me/fsrs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed advances in spaced repetition systems. Towards the end is a collection of resources for a further deep dive into the topic.</t>
   </si>
   <si>
     <t xml:space="preserve">Virtual Reality</t>
@@ -705,7 +1161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,6 +1171,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,8 +1190,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -870,17 +1330,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.84"/>
   </cols>
   <sheetData>
@@ -921,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45495</v>
+        <v>45615</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -938,932 +1399,1795 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="60.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>45708</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="n">
+    <row r="7" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>45659</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="n">
+    <row r="8" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>45659</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="9" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="n">
+    <row r="10" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="n">
+    <row r="11" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="n">
         <v>45659</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="n">
+    <row r="12" customFormat="false" ht="60.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="88" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="4" t="n">
         <v>45708</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="3" t="n">
+    <row r="14" customFormat="false" ht="60.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="142.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="3" t="n">
+    <row r="15" customFormat="false" ht="164.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="n">
+    <row r="16" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>44953</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="175" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="B17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="153.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="n">
+    <row r="18" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>45440</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="165.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>45440</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="3" t="n">
+    <row r="20" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="4" t="n">
         <v>45708</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="131.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="3" t="n">
+    <row r="21" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    <row r="23" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="3" t="n">
+      <c r="I27" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="3" t="n">
+    <row r="28" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="3" t="n">
+    <row r="29" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="48.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="48.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="3" t="n">
+    <row r="34" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="4" t="n">
         <v>45659</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>45708</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="3" t="n">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="48.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="48.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="36.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="95.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="60.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="3" t="n">
+    <row r="56" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="4" t="n">
         <v>45445</v>
       </c>
     </row>
+    <row r="57" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="48.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="60.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0"/>
+      <c r="B67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="G67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="33.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" s="7" t="n">
+        <v>45688</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="60.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" s="7" t="n">
+        <v>45015</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="7" t="n">
+        <v>45795</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>45445</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I36"/>
+  <autoFilter ref="A1:I72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
